--- a/DN_medieanalys_alla_meningar_ordanalys.xlsx
+++ b/DN_medieanalys_alla_meningar_ordanalys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellen/Desktop/Granskning/Resultat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AF05C-1EFF-194A-8F20-C40AC2399C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293CF6DF-7EDB-CA4B-A980-33A476A573FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="13560" xr2:uid="{202B8DB5-770B-4D4D-928C-25EC6DAD9A05}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="879">
   <si>
     <t>Datum</t>
   </si>
@@ -2657,7 +2657,25 @@
     <t>Från verbala påhopp och antisemitisk graffiti till dödshot och misshandel.</t>
   </si>
   <si>
-    <t>Fångar, Palestinska</t>
+    <t>De sex israeliska människorättsorganisationerna har gått till domstol för att tvinga fram uppgifter om vilka som hålls i förvar, hur många de är och var.</t>
+  </si>
+  <si>
+    <t>förvar</t>
+  </si>
+  <si>
+    <t>Frihetsberövade, Palestinier</t>
+  </si>
+  <si>
+    <t>För en vecka sedan rapporterade den israeliska tv-kanalen Channel 12 att 4 000 arbetare från Gaza hade gripits och internerats efter den 7 oktober, baserat på anonyma myndighetskällor.</t>
+  </si>
+  <si>
+    <t>internerats</t>
+  </si>
+  <si>
+    <t>En man som gripits av misstag och sedan släppts har vittnat för HaMoked, Gisha och fyra andra människorättsorganisationer om att hundratals arbetare hålls internerade på två militärbaser på Västbanken</t>
+  </si>
+  <si>
+    <t>internerade</t>
   </si>
 </sst>
 </file>
@@ -10950,10 +10968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15760830-F920-CC48-BBF1-90C68761E5F7}">
-  <dimension ref="A1:E611"/>
+  <dimension ref="A1:E614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="A353" sqref="A353:XFD353"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="E354" sqref="E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10962,7 +10980,7 @@
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="144.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -17006,7 +17024,7 @@
         <v>44</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -18146,7 +18164,7 @@
         <v>18</v>
       </c>
       <c r="E421" t="s">
-        <v>9</v>
+        <v>874</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -18166,21 +18184,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="423" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="4" t="s">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
         <v>616</v>
       </c>
-      <c r="B423" s="4" t="s">
+      <c r="B423" t="s">
         <v>617</v>
       </c>
-      <c r="C423" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D423" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E423" s="4" t="s">
-        <v>25</v>
+      <c r="C423" t="s">
+        <v>875</v>
+      </c>
+      <c r="D423" t="s">
+        <v>876</v>
+      </c>
+      <c r="E423" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -18191,13 +18209,13 @@
         <v>617</v>
       </c>
       <c r="C424" t="s">
-        <v>621</v>
+        <v>877</v>
       </c>
       <c r="D424" t="s">
-        <v>15</v>
+        <v>878</v>
       </c>
       <c r="E424" t="s">
-        <v>32</v>
+        <v>874</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -18205,34 +18223,33 @@
         <v>616</v>
       </c>
       <c r="B425" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C425" t="s">
-        <v>623</v>
+        <v>872</v>
       </c>
       <c r="D425" t="s">
-        <v>125</v>
+        <v>873</v>
       </c>
       <c r="E425" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B426" t="s">
-        <v>622</v>
-      </c>
-      <c r="C426" t="s">
-        <v>624</v>
-      </c>
-      <c r="D426" t="s">
-        <v>174</v>
-      </c>
-      <c r="E426" t="str">
-        <f>VLOOKUP(C426,[1]New!C412:F1014,4,FALSE)</f>
-        <v>Citat</v>
+      <c r="B426" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E426" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -18240,16 +18257,16 @@
         <v>616</v>
       </c>
       <c r="B427" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C427" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D427" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="E427" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -18257,16 +18274,16 @@
         <v>616</v>
       </c>
       <c r="B428" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C428" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D428" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E428" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -18274,16 +18291,17 @@
         <v>616</v>
       </c>
       <c r="B429" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C429" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D429" t="s">
-        <v>15</v>
-      </c>
-      <c r="E429" t="s">
-        <v>9</v>
+        <v>174</v>
+      </c>
+      <c r="E429" t="str">
+        <f>VLOOKUP(C429,[1]New!C412:F1014,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -18291,16 +18309,16 @@
         <v>616</v>
       </c>
       <c r="B430" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C430" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D430" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="E430" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -18311,65 +18329,65 @@
         <v>627</v>
       </c>
       <c r="C431" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D431" t="s">
-        <v>632</v>
-      </c>
-      <c r="E431" t="str">
-        <f>VLOOKUP(C431,[1]New!C417:F1019,4,FALSE)</f>
-        <v>Citat</v>
+        <v>63</v>
+      </c>
+      <c r="E431" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="B432" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C432" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D432" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E432" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="B433" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C433" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D433" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="E433" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="B434" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C434" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D434" t="s">
-        <v>98</v>
-      </c>
-      <c r="E434" t="s">
-        <v>84</v>
+        <v>632</v>
+      </c>
+      <c r="E434" t="str">
+        <f>VLOOKUP(C434,[1]New!C417:F1019,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -18380,13 +18398,13 @@
         <v>634</v>
       </c>
       <c r="C435" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D435" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E435" t="s">
-        <v>472</v>
+        <v>32</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -18397,13 +18415,13 @@
         <v>634</v>
       </c>
       <c r="C436" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D436" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="E436" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -18414,7 +18432,7 @@
         <v>634</v>
       </c>
       <c r="C437" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D437" t="s">
         <v>98</v>
@@ -18431,13 +18449,13 @@
         <v>634</v>
       </c>
       <c r="C438" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D438" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E438" t="s">
-        <v>42</v>
+        <v>472</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -18448,14 +18466,13 @@
         <v>634</v>
       </c>
       <c r="C439" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D439" t="s">
-        <v>214</v>
-      </c>
-      <c r="E439" t="str">
-        <f>VLOOKUP(C439,[1]New!C425:F1027,4,FALSE)</f>
-        <v>Citat</v>
+        <v>83</v>
+      </c>
+      <c r="E439" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -18463,16 +18480,16 @@
         <v>633</v>
       </c>
       <c r="B440" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C440" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D440" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E440" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -18480,16 +18497,16 @@
         <v>633</v>
       </c>
       <c r="B441" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C441" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D441" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="E441" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -18497,16 +18514,17 @@
         <v>633</v>
       </c>
       <c r="B442" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C442" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D442" t="s">
-        <v>15</v>
-      </c>
-      <c r="E442" t="s">
-        <v>9</v>
+        <v>214</v>
+      </c>
+      <c r="E442" t="str">
+        <f>VLOOKUP(C442,[1]New!C425:F1027,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -18517,13 +18535,13 @@
         <v>643</v>
       </c>
       <c r="C443" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D443" t="s">
-        <v>647</v>
+        <v>27</v>
       </c>
       <c r="E443" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -18534,13 +18552,13 @@
         <v>643</v>
       </c>
       <c r="C444" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D444" t="s">
-        <v>649</v>
+        <v>15</v>
       </c>
       <c r="E444" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -18551,13 +18569,13 @@
         <v>643</v>
       </c>
       <c r="C445" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D445" t="s">
         <v>15</v>
       </c>
       <c r="E445" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -18565,16 +18583,16 @@
         <v>633</v>
       </c>
       <c r="B446" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C446" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D446" t="s">
-        <v>15</v>
+        <v>647</v>
       </c>
       <c r="E446" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -18582,16 +18600,16 @@
         <v>633</v>
       </c>
       <c r="B447" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C447" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D447" t="s">
-        <v>15</v>
+        <v>649</v>
       </c>
       <c r="E447" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -18599,16 +18617,16 @@
         <v>633</v>
       </c>
       <c r="B448" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C448" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D448" t="s">
         <v>15</v>
       </c>
       <c r="E448" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -18616,10 +18634,10 @@
         <v>633</v>
       </c>
       <c r="B449" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C449" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D449" t="s">
         <v>15</v>
@@ -18636,13 +18654,13 @@
         <v>653</v>
       </c>
       <c r="C450" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D450" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="E450" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -18653,10 +18671,10 @@
         <v>653</v>
       </c>
       <c r="C451" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D451" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E451" t="s">
         <v>9</v>
@@ -18670,7 +18688,7 @@
         <v>653</v>
       </c>
       <c r="C452" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D452" t="s">
         <v>15</v>
@@ -18687,13 +18705,13 @@
         <v>653</v>
       </c>
       <c r="C453" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D453" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c r="E453" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -18704,10 +18722,10 @@
         <v>653</v>
       </c>
       <c r="C454" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D454" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E454" t="s">
         <v>9</v>
@@ -18721,10 +18739,10 @@
         <v>653</v>
       </c>
       <c r="C455" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D455" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E455" t="s">
         <v>9</v>
@@ -18738,10 +18756,10 @@
         <v>653</v>
       </c>
       <c r="C456" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D456" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E456" t="s">
         <v>9</v>
@@ -18755,10 +18773,10 @@
         <v>653</v>
       </c>
       <c r="C457" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D457" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E457" t="s">
         <v>9</v>
@@ -18769,16 +18787,16 @@
         <v>633</v>
       </c>
       <c r="B458" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C458" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D458" t="s">
-        <v>666</v>
+        <v>63</v>
       </c>
       <c r="E458" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -18786,17 +18804,16 @@
         <v>633</v>
       </c>
       <c r="B459" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C459" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D459" t="s">
-        <v>130</v>
-      </c>
-      <c r="E459" t="str">
-        <f>VLOOKUP(C459,[1]New!C444:F1046,4,FALSE)</f>
-        <v>Citat</v>
+        <v>63</v>
+      </c>
+      <c r="E459" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -18804,16 +18821,16 @@
         <v>633</v>
       </c>
       <c r="B460" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C460" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D460" t="s">
-        <v>666</v>
+        <v>63</v>
       </c>
       <c r="E460" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -18824,13 +18841,13 @@
         <v>664</v>
       </c>
       <c r="C461" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D461" t="s">
-        <v>15</v>
+        <v>666</v>
       </c>
       <c r="E461" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -18841,13 +18858,14 @@
         <v>664</v>
       </c>
       <c r="C462" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D462" t="s">
-        <v>301</v>
-      </c>
-      <c r="E462" t="s">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="E462" t="str">
+        <f>VLOOKUP(C462,[1]New!C444:F1046,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -18858,13 +18876,13 @@
         <v>664</v>
       </c>
       <c r="C463" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D463" t="s">
-        <v>18</v>
+        <v>666</v>
       </c>
       <c r="E463" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -18875,14 +18893,13 @@
         <v>664</v>
       </c>
       <c r="C464" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D464" t="s">
-        <v>666</v>
-      </c>
-      <c r="E464" t="str">
-        <f>VLOOKUP(C464,[1]New!C449:F1051,4,FALSE)</f>
-        <v>Nej</v>
+        <v>15</v>
+      </c>
+      <c r="E464" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -18893,13 +18910,13 @@
         <v>664</v>
       </c>
       <c r="C465" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D465" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="E465" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -18910,13 +18927,13 @@
         <v>664</v>
       </c>
       <c r="C466" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D466" t="s">
-        <v>675</v>
+        <v>18</v>
       </c>
       <c r="E466" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -18927,13 +18944,14 @@
         <v>664</v>
       </c>
       <c r="C467" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D467" t="s">
-        <v>15</v>
-      </c>
-      <c r="E467" t="s">
-        <v>9</v>
+        <v>666</v>
+      </c>
+      <c r="E467" t="str">
+        <f>VLOOKUP(C467,[1]New!C449:F1051,4,FALSE)</f>
+        <v>Nej</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -18944,13 +18962,13 @@
         <v>664</v>
       </c>
       <c r="C468" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D468" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="E468" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -18961,24 +18979,24 @@
         <v>664</v>
       </c>
       <c r="C469" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D469" t="s">
-        <v>402</v>
+        <v>675</v>
       </c>
       <c r="E469" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
       <c r="B470" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="C470" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D470" t="s">
         <v>15</v>
@@ -18989,13 +19007,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
       <c r="B471" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="C471" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D471" t="s">
         <v>15</v>
@@ -19006,16 +19024,16 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
       <c r="B472" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="C472" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D472" t="s">
-        <v>15</v>
+        <v>402</v>
       </c>
       <c r="E472" t="s">
         <v>32</v>
@@ -19026,13 +19044,13 @@
         <v>679</v>
       </c>
       <c r="B473" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C473" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D473" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E473" t="s">
         <v>9</v>
@@ -19043,13 +19061,13 @@
         <v>679</v>
       </c>
       <c r="B474" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C474" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D474" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="E474" t="s">
         <v>9</v>
@@ -19060,13 +19078,13 @@
         <v>679</v>
       </c>
       <c r="B475" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C475" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D475" t="s">
-        <v>688</v>
+        <v>15</v>
       </c>
       <c r="E475" t="s">
         <v>32</v>
@@ -19074,53 +19092,53 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B476" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C476" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D476" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E476" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B477" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C477" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D477" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="E477" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B478" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C478" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D478" t="s">
-        <v>125</v>
+        <v>688</v>
       </c>
       <c r="E478" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -19131,64 +19149,64 @@
         <v>690</v>
       </c>
       <c r="C479" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D479" t="s">
         <v>98</v>
       </c>
       <c r="E479" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B480" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C480" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D480" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E480" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B481" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C481" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D481" t="s">
-        <v>699</v>
+        <v>125</v>
       </c>
       <c r="E481" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B482" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C482" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D482" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="E482" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -19199,10 +19217,10 @@
         <v>696</v>
       </c>
       <c r="C483" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D483" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="E483" t="s">
         <v>9</v>
@@ -19216,10 +19234,10 @@
         <v>696</v>
       </c>
       <c r="C484" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D484" t="s">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="E484" t="s">
         <v>9</v>
@@ -19230,16 +19248,16 @@
         <v>695</v>
       </c>
       <c r="B485" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C485" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D485" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E485" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -19247,16 +19265,16 @@
         <v>695</v>
       </c>
       <c r="B486" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="C486" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D486" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="E486" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -19264,16 +19282,16 @@
         <v>695</v>
       </c>
       <c r="B487" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C487" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D487" t="s">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="E487" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -19281,10 +19299,10 @@
         <v>695</v>
       </c>
       <c r="B488" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C488" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D488" t="s">
         <v>125</v>
@@ -19298,10 +19316,10 @@
         <v>695</v>
       </c>
       <c r="B489" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C489" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D489" t="s">
         <v>125</v>
@@ -19318,13 +19336,13 @@
         <v>707</v>
       </c>
       <c r="C490" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D490" t="s">
         <v>513</v>
       </c>
       <c r="E490" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -19335,7 +19353,7 @@
         <v>707</v>
       </c>
       <c r="C491" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D491" t="s">
         <v>125</v>
@@ -19352,10 +19370,10 @@
         <v>707</v>
       </c>
       <c r="C492" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D492" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E492" t="s">
         <v>84</v>
@@ -19369,64 +19387,64 @@
         <v>707</v>
       </c>
       <c r="C493" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D493" t="s">
-        <v>125</v>
+        <v>513</v>
       </c>
       <c r="E493" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="B494" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C494" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D494" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E494" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="B495" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C495" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D495" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E495" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="B496" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C496" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D496" t="s">
-        <v>720</v>
+        <v>125</v>
       </c>
       <c r="E496" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -19434,16 +19452,16 @@
         <v>715</v>
       </c>
       <c r="B497" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C497" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D497" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E497" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -19451,16 +19469,16 @@
         <v>715</v>
       </c>
       <c r="B498" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C498" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D498" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="E498" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -19468,16 +19486,16 @@
         <v>715</v>
       </c>
       <c r="B499" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C499" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D499" t="s">
-        <v>98</v>
+        <v>720</v>
       </c>
       <c r="E499" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -19488,7 +19506,7 @@
         <v>721</v>
       </c>
       <c r="C500" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D500" t="s">
         <v>125</v>
@@ -19505,13 +19523,13 @@
         <v>721</v>
       </c>
       <c r="C501" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D501" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="E501" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -19519,13 +19537,13 @@
         <v>715</v>
       </c>
       <c r="B502" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C502" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D502" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E502" t="s">
         <v>84</v>
@@ -19536,16 +19554,16 @@
         <v>715</v>
       </c>
       <c r="B503" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C503" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D503" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E503" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -19553,13 +19571,13 @@
         <v>715</v>
       </c>
       <c r="B504" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C504" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D504" t="s">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="E504" t="s">
         <v>84</v>
@@ -19567,53 +19585,53 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="B505" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C505" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D505" t="s">
-        <v>351</v>
+        <v>125</v>
       </c>
       <c r="E505" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="B506" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C506" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D506" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E506" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="B507" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C507" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D507" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="E507" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -19621,16 +19639,16 @@
         <v>732</v>
       </c>
       <c r="B508" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C508" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D508" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="E508" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -19638,16 +19656,16 @@
         <v>732</v>
       </c>
       <c r="B509" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C509" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D509" t="s">
-        <v>741</v>
+        <v>21</v>
       </c>
       <c r="E509" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -19655,16 +19673,16 @@
         <v>732</v>
       </c>
       <c r="B510" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C510" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D510" t="s">
-        <v>743</v>
+        <v>21</v>
       </c>
       <c r="E510" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -19672,16 +19690,16 @@
         <v>732</v>
       </c>
       <c r="B511" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C511" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D511" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="E511" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -19692,14 +19710,13 @@
         <v>739</v>
       </c>
       <c r="C512" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D512" t="s">
-        <v>746</v>
-      </c>
-      <c r="E512" t="str">
-        <f>VLOOKUP(C512,[1]New!C498:F1100,4,FALSE)</f>
-        <v>Nej</v>
+        <v>741</v>
+      </c>
+      <c r="E512" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -19710,64 +19727,65 @@
         <v>739</v>
       </c>
       <c r="C513" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D513" t="s">
-        <v>98</v>
+        <v>743</v>
       </c>
       <c r="E513" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B514" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C514" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D514" t="s">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="E514" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B515" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C515" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D515" t="s">
-        <v>462</v>
-      </c>
-      <c r="E515" t="s">
-        <v>74</v>
+        <v>746</v>
+      </c>
+      <c r="E515" t="str">
+        <f>VLOOKUP(C515,[1]New!C498:F1100,4,FALSE)</f>
+        <v>Nej</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B516" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C516" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D516" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="E516" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -19778,64 +19796,64 @@
         <v>749</v>
       </c>
       <c r="C517" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D517" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="E517" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B518" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C518" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D518" t="s">
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="E518" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B519" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C519" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D519" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="E519" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B520" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C520" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D520" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E520" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -19843,17 +19861,16 @@
         <v>754</v>
       </c>
       <c r="B521" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C521" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D521" t="s">
-        <v>174</v>
-      </c>
-      <c r="E521" t="str">
-        <f>VLOOKUP(C521,[1]New!C508:F1110,4,FALSE)</f>
-        <v>Citat</v>
+        <v>15</v>
+      </c>
+      <c r="E521" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -19861,16 +19878,16 @@
         <v>754</v>
       </c>
       <c r="B522" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C522" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D522" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="E522" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -19878,13 +19895,13 @@
         <v>754</v>
       </c>
       <c r="B523" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C523" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D523" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E523" t="s">
         <v>84</v>
@@ -19895,16 +19912,17 @@
         <v>754</v>
       </c>
       <c r="B524" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C524" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D524" t="s">
-        <v>125</v>
-      </c>
-      <c r="E524" t="s">
-        <v>84</v>
+        <v>174</v>
+      </c>
+      <c r="E524" t="str">
+        <f>VLOOKUP(C524,[1]New!C508:F1110,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -19915,13 +19933,13 @@
         <v>761</v>
       </c>
       <c r="C525" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D525" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="E525" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -19929,13 +19947,13 @@
         <v>754</v>
       </c>
       <c r="B526" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C526" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D526" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E526" t="s">
         <v>84</v>
@@ -19946,16 +19964,16 @@
         <v>754</v>
       </c>
       <c r="B527" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C527" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D527" t="s">
-        <v>770</v>
+        <v>125</v>
       </c>
       <c r="E527" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -19963,17 +19981,16 @@
         <v>754</v>
       </c>
       <c r="B528" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C528" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D528" t="s">
-        <v>174</v>
-      </c>
-      <c r="E528" t="str">
-        <f>VLOOKUP(C528,[1]New!C515:F1117,4,FALSE)</f>
-        <v>Nej</v>
+        <v>285</v>
+      </c>
+      <c r="E528" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -19981,17 +19998,16 @@
         <v>754</v>
       </c>
       <c r="B529" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C529" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D529" t="s">
-        <v>174</v>
-      </c>
-      <c r="E529" t="str">
-        <f>VLOOKUP(C529,[1]New!C516:F1118,4,FALSE)</f>
-        <v>Citat</v>
+        <v>98</v>
+      </c>
+      <c r="E529" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -20002,13 +20018,13 @@
         <v>768</v>
       </c>
       <c r="C530" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D530" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E530" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -20019,13 +20035,14 @@
         <v>768</v>
       </c>
       <c r="C531" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D531" t="s">
-        <v>774</v>
-      </c>
-      <c r="E531" t="s">
-        <v>32</v>
+        <v>174</v>
+      </c>
+      <c r="E531" t="str">
+        <f>VLOOKUP(C531,[1]New!C515:F1117,4,FALSE)</f>
+        <v>Nej</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -20036,13 +20053,14 @@
         <v>768</v>
       </c>
       <c r="C532" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D532" t="s">
-        <v>15</v>
-      </c>
-      <c r="E532" t="s">
-        <v>32</v>
+        <v>174</v>
+      </c>
+      <c r="E532" t="str">
+        <f>VLOOKUP(C532,[1]New!C516:F1118,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -20053,10 +20071,10 @@
         <v>768</v>
       </c>
       <c r="C533" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D533" t="s">
-        <v>174</v>
+        <v>774</v>
       </c>
       <c r="E533" t="s">
         <v>32</v>
@@ -20070,14 +20088,13 @@
         <v>768</v>
       </c>
       <c r="C534" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D534" t="s">
-        <v>15</v>
-      </c>
-      <c r="E534" t="str">
-        <f>VLOOKUP(C534,[1]New!C521:F1123,4,FALSE)</f>
-        <v>Citat</v>
+        <v>774</v>
+      </c>
+      <c r="E534" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -20088,65 +20105,66 @@
         <v>768</v>
       </c>
       <c r="C535" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D535" t="s">
-        <v>174</v>
-      </c>
-      <c r="E535" t="str">
-        <f>VLOOKUP(C535,[1]New!C522:F1124,4,FALSE)</f>
-        <v>Citat</v>
+        <v>15</v>
+      </c>
+      <c r="E535" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B536" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C536" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D536" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="E536" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B537" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="C537" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D537" t="s">
-        <v>513</v>
-      </c>
-      <c r="E537" t="s">
-        <v>84</v>
+        <v>15</v>
+      </c>
+      <c r="E537" t="str">
+        <f>VLOOKUP(C537,[1]New!C521:F1123,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B538" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="C538" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D538" t="s">
-        <v>513</v>
-      </c>
-      <c r="E538" t="s">
-        <v>84</v>
+        <v>174</v>
+      </c>
+      <c r="E538" t="str">
+        <f>VLOOKUP(C538,[1]New!C522:F1124,4,FALSE)</f>
+        <v>Citat</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -20154,16 +20172,16 @@
         <v>780</v>
       </c>
       <c r="B539" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C539" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D539" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E539" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -20174,10 +20192,10 @@
         <v>783</v>
       </c>
       <c r="C540" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D540" t="s">
-        <v>125</v>
+        <v>513</v>
       </c>
       <c r="E540" t="s">
         <v>84</v>
@@ -20191,10 +20209,10 @@
         <v>783</v>
       </c>
       <c r="C541" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D541" t="s">
-        <v>98</v>
+        <v>513</v>
       </c>
       <c r="E541" t="s">
         <v>84</v>
@@ -20208,10 +20226,10 @@
         <v>783</v>
       </c>
       <c r="C542" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D542" t="s">
-        <v>513</v>
+        <v>125</v>
       </c>
       <c r="E542" t="s">
         <v>84</v>
@@ -20225,10 +20243,10 @@
         <v>783</v>
       </c>
       <c r="C543" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D543" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="E543" t="s">
         <v>84</v>
@@ -20242,10 +20260,10 @@
         <v>783</v>
       </c>
       <c r="C544" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D544" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E544" t="s">
         <v>84</v>
@@ -20259,13 +20277,13 @@
         <v>783</v>
       </c>
       <c r="C545" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D545" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="E545" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -20276,7 +20294,7 @@
         <v>783</v>
       </c>
       <c r="C546" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D546" t="s">
         <v>243</v>
@@ -20290,13 +20308,13 @@
         <v>780</v>
       </c>
       <c r="B547" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C547" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D547" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E547" t="s">
         <v>84</v>
@@ -20307,16 +20325,16 @@
         <v>780</v>
       </c>
       <c r="B548" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C548" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D548" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E548" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
@@ -20324,13 +20342,13 @@
         <v>780</v>
       </c>
       <c r="B549" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C549" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D549" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="E549" t="s">
         <v>84</v>
@@ -20344,7 +20362,7 @@
         <v>793</v>
       </c>
       <c r="C550" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D550" t="s">
         <v>125</v>
@@ -20361,10 +20379,10 @@
         <v>793</v>
       </c>
       <c r="C551" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D551" t="s">
-        <v>549</v>
+        <v>102</v>
       </c>
       <c r="E551" t="s">
         <v>84</v>
@@ -20378,10 +20396,10 @@
         <v>793</v>
       </c>
       <c r="C552" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D552" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E552" t="s">
         <v>84</v>
@@ -20395,7 +20413,7 @@
         <v>793</v>
       </c>
       <c r="C553" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D553" t="s">
         <v>125</v>
@@ -20412,10 +20430,10 @@
         <v>793</v>
       </c>
       <c r="C554" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D554" t="s">
-        <v>125</v>
+        <v>549</v>
       </c>
       <c r="E554" t="s">
         <v>84</v>
@@ -20429,10 +20447,10 @@
         <v>793</v>
       </c>
       <c r="C555" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D555" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E555" t="s">
         <v>84</v>
@@ -20440,16 +20458,16 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="B556" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C556" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D556" t="s">
-        <v>513</v>
+        <v>125</v>
       </c>
       <c r="E556" t="s">
         <v>84</v>
@@ -20457,36 +20475,36 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="B557" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C557" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D557" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E557" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="B558" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C558" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D558" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E558" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
@@ -20497,10 +20515,10 @@
         <v>802</v>
       </c>
       <c r="C559" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D559" t="s">
-        <v>806</v>
+        <v>513</v>
       </c>
       <c r="E559" t="s">
         <v>84</v>
@@ -20514,13 +20532,13 @@
         <v>802</v>
       </c>
       <c r="C560" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D560" t="s">
-        <v>285</v>
+        <v>52</v>
       </c>
       <c r="E560" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -20531,13 +20549,13 @@
         <v>802</v>
       </c>
       <c r="C561" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D561" t="s">
-        <v>809</v>
+        <v>52</v>
       </c>
       <c r="E561" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -20548,14 +20566,13 @@
         <v>802</v>
       </c>
       <c r="C562" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D562" t="s">
-        <v>174</v>
-      </c>
-      <c r="E562" t="str">
-        <f>VLOOKUP(C562,[1]New!C545:F1147,4,FALSE)</f>
-        <v>Nej</v>
+        <v>806</v>
+      </c>
+      <c r="E562" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -20566,13 +20583,13 @@
         <v>802</v>
       </c>
       <c r="C563" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D563" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="E563" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -20583,13 +20600,13 @@
         <v>802</v>
       </c>
       <c r="C564" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D564" t="s">
-        <v>52</v>
+        <v>809</v>
       </c>
       <c r="E564" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -20600,13 +20617,14 @@
         <v>802</v>
       </c>
       <c r="C565" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D565" t="s">
-        <v>806</v>
-      </c>
-      <c r="E565" t="s">
-        <v>84</v>
+        <v>174</v>
+      </c>
+      <c r="E565" t="str">
+        <f>VLOOKUP(C565,[1]New!C545:F1147,4,FALSE)</f>
+        <v>Nej</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -20617,14 +20635,13 @@
         <v>802</v>
       </c>
       <c r="C566" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D566" t="s">
-        <v>115</v>
-      </c>
-      <c r="E566" t="str">
-        <f>VLOOKUP(C566,[1]New!C548:F1150,4,FALSE)</f>
-        <v>Nej</v>
+        <v>98</v>
+      </c>
+      <c r="E566" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -20635,10 +20652,10 @@
         <v>802</v>
       </c>
       <c r="C567" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D567" t="s">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="E567" t="s">
         <v>53</v>
@@ -20652,10 +20669,10 @@
         <v>802</v>
       </c>
       <c r="C568" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D568" t="s">
-        <v>125</v>
+        <v>806</v>
       </c>
       <c r="E568" t="s">
         <v>84</v>
@@ -20669,13 +20686,14 @@
         <v>802</v>
       </c>
       <c r="C569" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D569" t="s">
-        <v>52</v>
-      </c>
-      <c r="E569" t="s">
-        <v>53</v>
+        <v>115</v>
+      </c>
+      <c r="E569" t="str">
+        <f>VLOOKUP(C569,[1]New!C548:F1150,4,FALSE)</f>
+        <v>Nej</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
@@ -20683,16 +20701,16 @@
         <v>801</v>
       </c>
       <c r="B570" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="C570" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D570" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="E570" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -20700,16 +20718,16 @@
         <v>801</v>
       </c>
       <c r="B571" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="C571" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D571" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E571" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
@@ -20717,16 +20735,16 @@
         <v>801</v>
       </c>
       <c r="B572" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="C572" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D572" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="E572" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -20734,13 +20752,13 @@
         <v>801</v>
       </c>
       <c r="B573" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C573" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D573" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="E573" t="s">
         <v>9</v>
@@ -20754,10 +20772,10 @@
         <v>818</v>
       </c>
       <c r="C574" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D574" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E574" t="s">
         <v>9</v>
@@ -20771,13 +20789,13 @@
         <v>818</v>
       </c>
       <c r="C575" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D575" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E575" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -20788,10 +20806,10 @@
         <v>818</v>
       </c>
       <c r="C576" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D576" t="s">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c r="E576" t="s">
         <v>9</v>
@@ -20805,10 +20823,10 @@
         <v>818</v>
       </c>
       <c r="C577" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D577" t="s">
-        <v>826</v>
+        <v>144</v>
       </c>
       <c r="E577" t="s">
         <v>9</v>
@@ -20822,13 +20840,13 @@
         <v>818</v>
       </c>
       <c r="C578" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D578" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E578" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -20839,7 +20857,7 @@
         <v>818</v>
       </c>
       <c r="C579" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D579" t="s">
         <v>15</v>
@@ -20853,13 +20871,13 @@
         <v>801</v>
       </c>
       <c r="B580" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C580" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D580" t="s">
-        <v>15</v>
+        <v>826</v>
       </c>
       <c r="E580" t="s">
         <v>9</v>
@@ -20870,16 +20888,16 @@
         <v>801</v>
       </c>
       <c r="B581" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C581" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D581" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E581" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -20887,16 +20905,16 @@
         <v>801</v>
       </c>
       <c r="B582" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C582" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D582" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E582" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -20907,98 +20925,98 @@
         <v>829</v>
       </c>
       <c r="C583" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D583" t="s">
         <v>15</v>
       </c>
       <c r="E583" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="B584" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C584" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D584" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E584" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="B585" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="C585" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D585" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E585" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>839</v>
+        <v>801</v>
       </c>
       <c r="B586" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C586" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="D586" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="E586" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B587" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C587" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D587" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E587" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B588" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C588" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D588" t="s">
         <v>15</v>
       </c>
       <c r="E588" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
@@ -21006,13 +21024,13 @@
         <v>839</v>
       </c>
       <c r="B589" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C589" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D589" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="E589" t="s">
         <v>142</v>
@@ -21023,16 +21041,16 @@
         <v>839</v>
       </c>
       <c r="B590" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C590" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D590" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="E590" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
@@ -21040,17 +21058,16 @@
         <v>839</v>
       </c>
       <c r="B591" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C591" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D591" t="s">
-        <v>174</v>
-      </c>
-      <c r="E591" t="str">
-        <f>VLOOKUP(C591,[1]New!C576:F1178,4,FALSE)</f>
-        <v>Nej</v>
+        <v>15</v>
+      </c>
+      <c r="E591" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
@@ -21058,16 +21075,16 @@
         <v>839</v>
       </c>
       <c r="B592" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C592" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D592" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="E592" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
@@ -21075,16 +21092,16 @@
         <v>839</v>
       </c>
       <c r="B593" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C593" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D593" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="E593" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
@@ -21092,16 +21109,17 @@
         <v>839</v>
       </c>
       <c r="B594" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C594" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D594" t="s">
-        <v>15</v>
-      </c>
-      <c r="E594" t="s">
-        <v>9</v>
+        <v>174</v>
+      </c>
+      <c r="E594" t="str">
+        <f>VLOOKUP(C594,[1]New!C576:F1178,4,FALSE)</f>
+        <v>Nej</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
@@ -21109,16 +21127,16 @@
         <v>839</v>
       </c>
       <c r="B595" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C595" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D595" t="s">
         <v>98</v>
       </c>
       <c r="E595" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
@@ -21126,13 +21144,13 @@
         <v>839</v>
       </c>
       <c r="B596" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C596" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D596" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E596" t="s">
         <v>32</v>
@@ -21146,13 +21164,13 @@
         <v>850</v>
       </c>
       <c r="C597" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D597" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E597" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
@@ -21163,13 +21181,13 @@
         <v>850</v>
       </c>
       <c r="C598" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D598" t="s">
         <v>98</v>
       </c>
       <c r="E598" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
@@ -21180,13 +21198,13 @@
         <v>850</v>
       </c>
       <c r="C599" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D599" t="s">
-        <v>743</v>
+        <v>27</v>
       </c>
       <c r="E599" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
@@ -21194,16 +21212,16 @@
         <v>839</v>
       </c>
       <c r="B600" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C600" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D600" t="s">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="E600" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
@@ -21211,13 +21229,13 @@
         <v>839</v>
       </c>
       <c r="B601" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="C601" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D601" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E601" t="s">
         <v>84</v>
@@ -21228,16 +21246,16 @@
         <v>839</v>
       </c>
       <c r="B602" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="C602" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D602" t="s">
-        <v>148</v>
+        <v>743</v>
       </c>
       <c r="E602" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
@@ -21245,16 +21263,16 @@
         <v>839</v>
       </c>
       <c r="B603" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C603" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D603" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="E603" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
@@ -21265,10 +21283,10 @@
         <v>859</v>
       </c>
       <c r="C604" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D604" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E604" t="s">
         <v>84</v>
@@ -21282,13 +21300,13 @@
         <v>859</v>
       </c>
       <c r="C605" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D605" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E605" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
@@ -21299,13 +21317,13 @@
         <v>859</v>
       </c>
       <c r="C606" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D606" t="s">
-        <v>866</v>
+        <v>125</v>
       </c>
       <c r="E606" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
@@ -21316,13 +21334,13 @@
         <v>859</v>
       </c>
       <c r="C607" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D607" t="s">
-        <v>743</v>
+        <v>100</v>
       </c>
       <c r="E607" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
@@ -21333,13 +21351,13 @@
         <v>859</v>
       </c>
       <c r="C608" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D608" t="s">
-        <v>866</v>
+        <v>125</v>
       </c>
       <c r="E608" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
@@ -21350,13 +21368,13 @@
         <v>859</v>
       </c>
       <c r="C609" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D609" t="s">
-        <v>15</v>
+        <v>866</v>
       </c>
       <c r="E609" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
@@ -21367,13 +21385,13 @@
         <v>859</v>
       </c>
       <c r="C610" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D610" t="s">
-        <v>125</v>
+        <v>743</v>
       </c>
       <c r="E610" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
@@ -21384,12 +21402,63 @@
         <v>859</v>
       </c>
       <c r="C611" t="s">
+        <v>868</v>
+      </c>
+      <c r="D611" t="s">
+        <v>866</v>
+      </c>
+      <c r="E611" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>839</v>
+      </c>
+      <c r="B612" t="s">
+        <v>859</v>
+      </c>
+      <c r="C612" t="s">
+        <v>869</v>
+      </c>
+      <c r="D612" t="s">
+        <v>15</v>
+      </c>
+      <c r="E612" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>839</v>
+      </c>
+      <c r="B613" t="s">
+        <v>859</v>
+      </c>
+      <c r="C613" t="s">
+        <v>870</v>
+      </c>
+      <c r="D613" t="s">
+        <v>125</v>
+      </c>
+      <c r="E613" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>839</v>
+      </c>
+      <c r="B614" t="s">
+        <v>859</v>
+      </c>
+      <c r="C614" t="s">
         <v>871</v>
       </c>
-      <c r="D611" t="s">
+      <c r="D614" t="s">
         <v>102</v>
       </c>
-      <c r="E611" t="s">
+      <c r="E614" t="s">
         <v>84</v>
       </c>
     </row>
